--- a/pred_ohlcv/54/2019-10-19 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 LOOM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>27.2</v>
       </c>
       <c r="F2" t="n">
-        <v>26905.0056</v>
+        <v>26624.1945</v>
       </c>
       <c r="G2" t="n">
-        <v>26.88833333333335</v>
+        <v>26.88666666666668</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D3" t="n">
-        <v>28.4</v>
+        <v>27.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F3" t="n">
-        <v>272082.3069</v>
+        <v>26905.0056</v>
       </c>
       <c r="G3" t="n">
-        <v>26.89500000000002</v>
+        <v>26.88833333333335</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C4" t="n">
         <v>27.5</v>
       </c>
-      <c r="C4" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D4" t="n">
-        <v>27.5</v>
+        <v>28.4</v>
       </c>
       <c r="E4" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>8130.3447</v>
+        <v>272082.3069</v>
       </c>
       <c r="G4" t="n">
-        <v>26.89666666666669</v>
+        <v>26.89500000000002</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E5" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7899</v>
+        <v>8130.3447</v>
       </c>
       <c r="G5" t="n">
-        <v>26.90000000000002</v>
+        <v>26.89666666666669</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>5250.4117</v>
+        <v>7899</v>
       </c>
       <c r="G6" t="n">
-        <v>26.90500000000002</v>
+        <v>26.90000000000002</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C7" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D7" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E7" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>12686.1694</v>
+        <v>5250.4117</v>
       </c>
       <c r="G7" t="n">
-        <v>26.90833333333336</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C8" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E8" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F8" t="n">
-        <v>3862.0784</v>
+        <v>12686.1694</v>
       </c>
       <c r="G8" t="n">
-        <v>26.91333333333336</v>
+        <v>26.90833333333336</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>27.3</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D9" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27653.5244</v>
+        <v>3862.0784</v>
       </c>
       <c r="G9" t="n">
-        <v>26.91666666666669</v>
+        <v>26.91333333333336</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C10" t="n">
         <v>27.2</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
         <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>5402.5929</v>
+        <v>27653.5244</v>
       </c>
       <c r="G10" t="n">
-        <v>26.92000000000002</v>
+        <v>26.91666666666669</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>27.2</v>
       </c>
       <c r="F11" t="n">
-        <v>9244.772300000001</v>
+        <v>5402.5929</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92500000000002</v>
+        <v>26.92000000000002</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E12" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F12" t="n">
-        <v>16733.123</v>
+        <v>9244.772300000001</v>
       </c>
       <c r="G12" t="n">
-        <v>26.93000000000002</v>
+        <v>26.92500000000002</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D13" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1630.3866</v>
+        <v>16733.123</v>
       </c>
       <c r="G13" t="n">
-        <v>26.93500000000002</v>
+        <v>26.93000000000002</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>27.1</v>
       </c>
       <c r="C14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>27.1</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>1067</v>
+        <v>1630.3866</v>
       </c>
       <c r="G14" t="n">
-        <v>26.94166666666668</v>
+        <v>26.93500000000002</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F15" t="n">
-        <v>895</v>
+        <v>1067</v>
       </c>
       <c r="G15" t="n">
-        <v>26.95333333333335</v>
+        <v>26.94166666666668</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D16" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1593.774</v>
+        <v>895</v>
       </c>
       <c r="G16" t="n">
-        <v>26.96000000000002</v>
+        <v>26.95333333333335</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C17" t="n">
         <v>27</v>
@@ -810,12 +860,15 @@
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>41333.7571</v>
+        <v>1593.774</v>
       </c>
       <c r="G17" t="n">
-        <v>26.96666666666669</v>
+        <v>26.96000000000002</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>8796.296</v>
+        <v>41333.7571</v>
       </c>
       <c r="G18" t="n">
-        <v>26.97500000000002</v>
+        <v>26.96666666666669</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>8796.296</v>
       </c>
       <c r="G19" t="n">
-        <v>26.98166666666669</v>
+        <v>26.97500000000002</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C20" t="n">
         <v>27.1</v>
@@ -885,15 +944,18 @@
         <v>27.1</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F20" t="n">
-        <v>10661.267</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>26.98833333333335</v>
+        <v>26.98166666666669</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D21" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E21" t="n">
         <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>12462.075</v>
+        <v>10661.267</v>
       </c>
       <c r="G21" t="n">
-        <v>26.99333333333335</v>
+        <v>26.98833333333335</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,18 +999,21 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E22" t="n">
         <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>8796.296</v>
+        <v>12462.075</v>
       </c>
       <c r="G22" t="n">
-        <v>27.00000000000002</v>
+        <v>26.99333333333335</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,7 +1025,7 @@
         <v>27.1</v>
       </c>
       <c r="C23" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>27.1</v>
@@ -966,12 +1034,15 @@
         <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>110871.3919</v>
+        <v>8796.296</v>
       </c>
       <c r="G23" t="n">
-        <v>27.00833333333335</v>
+        <v>27.00000000000002</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,15 +1060,18 @@
         <v>27.1</v>
       </c>
       <c r="E24" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>55347.1966</v>
+        <v>110871.3919</v>
       </c>
       <c r="G24" t="n">
-        <v>27.01666666666669</v>
+        <v>27.00833333333335</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>27.1</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>55347.1966</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02333333333335</v>
+        <v>27.01666666666669</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>27.1</v>
       </c>
       <c r="F26" t="n">
-        <v>14158.7065</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>27.03333333333335</v>
+        <v>27.02333333333335</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D27" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F27" t="n">
-        <v>20719.8645</v>
+        <v>14158.7065</v>
       </c>
       <c r="G27" t="n">
-        <v>27.04166666666668</v>
+        <v>27.03333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,18 +1173,21 @@
         <v>27.2</v>
       </c>
       <c r="D28" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="n">
         <v>27.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1586.9999</v>
+        <v>20719.8645</v>
       </c>
       <c r="G28" t="n">
-        <v>27.05000000000001</v>
+        <v>27.04166666666668</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C29" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E29" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F29" t="n">
-        <v>14964.0402</v>
+        <v>1586.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>27.05666666666668</v>
+        <v>27.05000000000001</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
         <v>27.1</v>
       </c>
       <c r="D30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E30" t="n">
         <v>27.1</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>14964.0402</v>
       </c>
       <c r="G30" t="n">
-        <v>27.06333333333334</v>
+        <v>27.05666666666668</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F31" t="n">
-        <v>8385.535099999999</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>27.07166666666668</v>
+        <v>27.06333333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F32" t="n">
-        <v>9767</v>
+        <v>8385.535099999999</v>
       </c>
       <c r="G32" t="n">
-        <v>27.08333333333335</v>
+        <v>27.07166666666668</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>9767</v>
       </c>
       <c r="G33" t="n">
-        <v>27.08833333333335</v>
+        <v>27.08333333333335</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>27.2</v>
       </c>
       <c r="C34" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D34" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E34" t="n">
         <v>27.2</v>
       </c>
       <c r="F34" t="n">
-        <v>64869.5929</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>27.09333333333334</v>
+        <v>27.08833333333335</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C35" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D35" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
         <v>27.2</v>
       </c>
       <c r="F35" t="n">
-        <v>123724.0001</v>
+        <v>64869.5929</v>
       </c>
       <c r="G35" t="n">
-        <v>27.09833333333334</v>
+        <v>27.09333333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>27.3</v>
       </c>
       <c r="C36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D36" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1610.1071</v>
+        <v>123724.0001</v>
       </c>
       <c r="G36" t="n">
-        <v>27.10500000000001</v>
+        <v>27.09833333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>27.3</v>
       </c>
       <c r="C37" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D37" t="n">
         <v>27.3</v>
       </c>
       <c r="E37" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F37" t="n">
-        <v>34253.0818</v>
+        <v>1610.1071</v>
       </c>
       <c r="G37" t="n">
-        <v>27.11166666666668</v>
+        <v>27.10500000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C38" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D38" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E38" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>34253.0818</v>
       </c>
       <c r="G38" t="n">
-        <v>27.12833333333334</v>
+        <v>27.11166666666668</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>27.7</v>
       </c>
       <c r="C39" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D39" t="n">
         <v>27.7</v>
       </c>
       <c r="E39" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F39" t="n">
-        <v>64479.5992</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>27.13500000000001</v>
+        <v>27.12833333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C40" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D40" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E40" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1527.2152</v>
+        <v>64479.5992</v>
       </c>
       <c r="G40" t="n">
-        <v>27.14666666666667</v>
+        <v>27.13500000000001</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F41" t="n">
-        <v>27992.2242</v>
+        <v>1527.2152</v>
       </c>
       <c r="G41" t="n">
-        <v>27.15333333333334</v>
+        <v>27.14666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>27.3</v>
       </c>
       <c r="F42" t="n">
-        <v>35000</v>
+        <v>27992.2242</v>
       </c>
       <c r="G42" t="n">
-        <v>27.16333333333334</v>
+        <v>27.15333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>27.3</v>
       </c>
       <c r="F43" t="n">
-        <v>29829.4445</v>
+        <v>35000</v>
       </c>
       <c r="G43" t="n">
-        <v>27.17</v>
+        <v>27.16333333333334</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>27.3</v>
       </c>
       <c r="F44" t="n">
-        <v>11718.6976</v>
+        <v>29829.4445</v>
       </c>
       <c r="G44" t="n">
-        <v>27.17666666666667</v>
+        <v>27.17</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>27.3</v>
       </c>
       <c r="F45" t="n">
-        <v>1872.4149</v>
+        <v>11718.6976</v>
       </c>
       <c r="G45" t="n">
-        <v>27.18166666666666</v>
+        <v>27.17666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>34323.1029</v>
+        <v>1872.4149</v>
       </c>
       <c r="G46" t="n">
-        <v>27.18666666666666</v>
+        <v>27.18166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F47" t="n">
-        <v>12700</v>
+        <v>34323.1029</v>
       </c>
       <c r="G47" t="n">
-        <v>27.19</v>
+        <v>27.18666666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>27.2</v>
       </c>
       <c r="F48" t="n">
-        <v>4007.557</v>
+        <v>12700</v>
       </c>
       <c r="G48" t="n">
-        <v>27.19166666666667</v>
+        <v>27.19</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>27.2</v>
       </c>
       <c r="F49" t="n">
-        <v>5809.6609</v>
+        <v>4007.557</v>
       </c>
       <c r="G49" t="n">
-        <v>27.19333333333334</v>
+        <v>27.19166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D50" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E50" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F50" t="n">
-        <v>160</v>
+        <v>5809.6609</v>
       </c>
       <c r="G50" t="n">
-        <v>27.20333333333333</v>
+        <v>27.19333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F51" t="n">
-        <v>3090.3327</v>
+        <v>160</v>
       </c>
       <c r="G51" t="n">
-        <v>27.21333333333333</v>
+        <v>27.20333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>27.3</v>
       </c>
       <c r="C52" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D52" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="n">
         <v>27.3</v>
       </c>
       <c r="F52" t="n">
-        <v>49</v>
+        <v>3090.3327</v>
       </c>
       <c r="G52" t="n">
-        <v>27.21666666666667</v>
+        <v>27.21333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>27.3</v>
       </c>
       <c r="C53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D53" t="n">
         <v>27.3</v>
       </c>
       <c r="E53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F53" t="n">
-        <v>78074.3547</v>
+        <v>49</v>
       </c>
       <c r="G53" t="n">
         <v>27.21666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1924,7 @@
         <v>27.3</v>
       </c>
       <c r="C54" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D54" t="n">
         <v>27.3</v>
@@ -1772,12 +1933,15 @@
         <v>27.2</v>
       </c>
       <c r="F54" t="n">
-        <v>66983.51459999999</v>
+        <v>78074.3547</v>
       </c>
       <c r="G54" t="n">
-        <v>27.22166666666667</v>
+        <v>27.21666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1795,15 +1959,18 @@
         <v>27.3</v>
       </c>
       <c r="E55" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F55" t="n">
-        <v>29995.9706</v>
+        <v>66983.51459999999</v>
       </c>
       <c r="G55" t="n">
-        <v>27.22666666666667</v>
+        <v>27.22166666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>29995.9706</v>
       </c>
       <c r="G56" t="n">
-        <v>27.23333333333333</v>
+        <v>27.22666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F57" t="n">
-        <v>19220.4029</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>27.235</v>
+        <v>27.23333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F58" t="n">
-        <v>12265.7554</v>
+        <v>19220.4029</v>
       </c>
       <c r="G58" t="n">
         <v>27.235</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>27.2</v>
       </c>
       <c r="F59" t="n">
-        <v>36200</v>
+        <v>12265.7554</v>
       </c>
       <c r="G59" t="n">
         <v>27.235</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F60" t="n">
-        <v>905.9773</v>
+        <v>36200</v>
       </c>
       <c r="G60" t="n">
-        <v>27.23666666666666</v>
+        <v>27.235</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F61" t="n">
-        <v>631.3891</v>
+        <v>905.9773</v>
       </c>
       <c r="G61" t="n">
         <v>27.23666666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C62" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D62" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E62" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F62" t="n">
-        <v>4605.9773</v>
+        <v>631.3891</v>
       </c>
       <c r="G62" t="n">
-        <v>27.24333333333333</v>
+        <v>27.23666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C63" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D63" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F63" t="n">
-        <v>2091.9536</v>
+        <v>4605.9773</v>
       </c>
       <c r="G63" t="n">
-        <v>27.24666666666666</v>
+        <v>27.24333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C64" t="n">
         <v>27.7</v>
@@ -2029,15 +2220,18 @@
         <v>27.7</v>
       </c>
       <c r="E64" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>7029.8157</v>
+        <v>2091.9536</v>
       </c>
       <c r="G64" t="n">
-        <v>27.255</v>
+        <v>27.24666666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F65" t="n">
-        <v>25936.1757</v>
+        <v>7029.8157</v>
       </c>
       <c r="G65" t="n">
-        <v>27.26333333333333</v>
+        <v>27.255</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>27.8</v>
       </c>
       <c r="F66" t="n">
-        <v>8563.000099999999</v>
+        <v>25936.1757</v>
       </c>
       <c r="G66" t="n">
-        <v>27.27166666666666</v>
+        <v>27.26333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>27.8</v>
       </c>
       <c r="F67" t="n">
-        <v>27815.1617</v>
+        <v>8563.000099999999</v>
       </c>
       <c r="G67" t="n">
-        <v>27.28166666666666</v>
+        <v>27.27166666666666</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F68" t="n">
-        <v>851.7436</v>
+        <v>27815.1617</v>
       </c>
       <c r="G68" t="n">
-        <v>27.28833333333333</v>
+        <v>27.28166666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>27.7</v>
       </c>
       <c r="F69" t="n">
-        <v>39714.3573</v>
+        <v>851.7436</v>
       </c>
       <c r="G69" t="n">
-        <v>27.29666666666666</v>
+        <v>27.28833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F70" t="n">
-        <v>33807.6592</v>
+        <v>39714.3573</v>
       </c>
       <c r="G70" t="n">
-        <v>27.30833333333333</v>
+        <v>27.29666666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>27.9</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E71" t="n">
         <v>27.9</v>
       </c>
       <c r="F71" t="n">
-        <v>50617.829</v>
+        <v>33807.6592</v>
       </c>
       <c r="G71" t="n">
-        <v>27.32166666666666</v>
+        <v>27.30833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C72" t="n">
         <v>28</v>
@@ -2237,15 +2452,18 @@
         <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F72" t="n">
-        <v>84136.357</v>
+        <v>50617.829</v>
       </c>
       <c r="G72" t="n">
-        <v>27.33666666666666</v>
+        <v>27.32166666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>28</v>
       </c>
       <c r="F73" t="n">
-        <v>68154.5673</v>
+        <v>84136.357</v>
       </c>
       <c r="G73" t="n">
-        <v>27.35333333333333</v>
+        <v>27.33666666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>68154.5673</v>
       </c>
       <c r="G74" t="n">
-        <v>27.37333333333333</v>
+        <v>27.35333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="D75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>1583.0765</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>27.38666666666666</v>
+        <v>27.37333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,25 +2559,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F76" t="n">
-        <v>981.7024</v>
+        <v>1583.0765</v>
       </c>
       <c r="G76" t="n">
-        <v>27.40333333333333</v>
+        <v>27.38666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2370,12 +2600,15 @@
         <v>28</v>
       </c>
       <c r="F77" t="n">
-        <v>16388.9445</v>
+        <v>981.7024</v>
       </c>
       <c r="G77" t="n">
-        <v>27.42</v>
+        <v>27.40333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
         <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>2600</v>
+        <v>16388.9445</v>
       </c>
       <c r="G78" t="n">
-        <v>27.435</v>
+        <v>27.42</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>28</v>
+      </c>
+      <c r="C79" t="n">
         <v>28.1</v>
       </c>
-      <c r="C79" t="n">
-        <v>28.3</v>
-      </c>
       <c r="D79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="E79" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F79" t="n">
-        <v>1510</v>
+        <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>27.45499999999999</v>
+        <v>27.435</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C80" t="n">
         <v>28.3</v>
       </c>
-      <c r="C80" t="n">
-        <v>28</v>
-      </c>
       <c r="D80" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E80" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F80" t="n">
-        <v>249828.441</v>
+        <v>1510</v>
       </c>
       <c r="G80" t="n">
-        <v>27.47</v>
+        <v>27.45499999999999</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C81" t="n">
         <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E81" t="n">
         <v>28</v>
       </c>
       <c r="F81" t="n">
-        <v>67882.13800000001</v>
+        <v>249828.441</v>
       </c>
       <c r="G81" t="n">
-        <v>27.48666666666666</v>
+        <v>27.47</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>28.1</v>
       </c>
       <c r="C82" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E82" t="n">
         <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>25061.9586</v>
+        <v>67882.13800000001</v>
       </c>
       <c r="G82" t="n">
-        <v>27.505</v>
+        <v>27.48666666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2523,15 +2771,18 @@
         <v>28.1</v>
       </c>
       <c r="E83" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>697</v>
+        <v>25061.9586</v>
       </c>
       <c r="G83" t="n">
-        <v>27.52166666666666</v>
+        <v>27.505</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D84" t="n">
         <v>28.1</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F84" t="n">
-        <v>51370.1659</v>
+        <v>697</v>
       </c>
       <c r="G84" t="n">
-        <v>27.53666666666667</v>
+        <v>27.52166666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
         <v>28</v>
@@ -2578,12 +2832,15 @@
         <v>28</v>
       </c>
       <c r="F85" t="n">
-        <v>17113.3798</v>
+        <v>51370.1659</v>
       </c>
       <c r="G85" t="n">
-        <v>27.55166666666667</v>
+        <v>27.53666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C86" t="n">
+        <v>28</v>
+      </c>
+      <c r="D86" t="n">
         <v>28.1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>28.3</v>
       </c>
       <c r="E86" t="n">
         <v>28</v>
       </c>
       <c r="F86" t="n">
-        <v>20020</v>
+        <v>17113.3798</v>
       </c>
       <c r="G86" t="n">
-        <v>27.56833333333333</v>
+        <v>27.55166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E87" t="n">
         <v>28</v>
       </c>
-      <c r="C87" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>28</v>
-      </c>
-      <c r="E87" t="n">
-        <v>27.8</v>
-      </c>
       <c r="F87" t="n">
-        <v>53835.2209</v>
+        <v>20020</v>
       </c>
       <c r="G87" t="n">
-        <v>27.57833333333333</v>
+        <v>27.56833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D88" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F88" t="n">
-        <v>49223.5243</v>
+        <v>53835.2209</v>
       </c>
       <c r="G88" t="n">
-        <v>27.58499999999999</v>
+        <v>27.57833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>27.7</v>
       </c>
       <c r="C89" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D89" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E89" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>50007.9999</v>
+        <v>49223.5243</v>
       </c>
       <c r="G89" t="n">
-        <v>27.59833333333333</v>
+        <v>27.58499999999999</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2705,15 +2974,18 @@
         <v>27.9</v>
       </c>
       <c r="E90" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F90" t="n">
-        <v>26251.2972</v>
+        <v>50007.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>27.61166666666667</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C91" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D91" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E91" t="n">
         <v>27.6</v>
       </c>
       <c r="F91" t="n">
-        <v>146587.964</v>
+        <v>26251.2972</v>
       </c>
       <c r="G91" t="n">
-        <v>27.61833333333333</v>
+        <v>27.61166666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C92" t="n">
         <v>27.6</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E92" t="n">
         <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>18115.942</v>
+        <v>146587.964</v>
       </c>
       <c r="G92" t="n">
-        <v>27.62333333333333</v>
+        <v>27.61833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2789,9 +3067,12 @@
         <v>18115.942</v>
       </c>
       <c r="G93" t="n">
-        <v>27.63</v>
+        <v>27.62333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>27.6</v>
       </c>
       <c r="F94" t="n">
-        <v>39999.579</v>
+        <v>18115.942</v>
       </c>
       <c r="G94" t="n">
-        <v>27.63499999999999</v>
+        <v>27.63</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D95" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F95" t="n">
-        <v>4096.1986</v>
+        <v>39999.579</v>
       </c>
       <c r="G95" t="n">
-        <v>27.64333333333333</v>
+        <v>27.63499999999999</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2858,18 +3145,21 @@
         <v>27.7</v>
       </c>
       <c r="D96" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E96" t="n">
         <v>27.7</v>
       </c>
       <c r="F96" t="n">
-        <v>73536.3729</v>
+        <v>4096.1986</v>
       </c>
       <c r="G96" t="n">
-        <v>27.65</v>
+        <v>27.64333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>27.7</v>
       </c>
       <c r="F97" t="n">
-        <v>54642</v>
+        <v>73536.3729</v>
       </c>
       <c r="G97" t="n">
-        <v>27.65833333333333</v>
+        <v>27.65</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>63263.7688</v>
+        <v>54642</v>
       </c>
       <c r="G98" t="n">
         <v>27.65833333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>27.7</v>
       </c>
       <c r="C99" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D99" t="n">
         <v>27.7</v>
       </c>
       <c r="E99" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F99" t="n">
-        <v>39775.0001</v>
+        <v>63263.7688</v>
       </c>
       <c r="G99" t="n">
-        <v>27.66333333333333</v>
+        <v>27.65833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C100" t="n">
         <v>27.6</v>
       </c>
       <c r="D100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E100" t="n">
         <v>27.6</v>
       </c>
       <c r="F100" t="n">
-        <v>36241.8841</v>
+        <v>39775.0001</v>
       </c>
       <c r="G100" t="n">
-        <v>27.66666666666666</v>
+        <v>27.66333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>27.8</v>
       </c>
       <c r="C101" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D101" t="n">
         <v>27.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>36241.8841</v>
       </c>
       <c r="G101" t="n">
-        <v>27.67499999999999</v>
+        <v>27.66666666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F102" t="n">
-        <v>146.8538</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>27.67833333333333</v>
+        <v>27.67499999999999</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>146.8538</v>
       </c>
       <c r="G103" t="n">
-        <v>27.68666666666666</v>
+        <v>27.67833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C104" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D104" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F104" t="n">
-        <v>32364.0834</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>27.69333333333333</v>
+        <v>27.68666666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>5786.123188405797</v>
+        <v>32364.0834</v>
       </c>
       <c r="G105" t="n">
-        <v>27.69833333333333</v>
+        <v>27.69333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C106" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F106" t="n">
-        <v>90225.7564</v>
+        <v>5786.123188405797</v>
       </c>
       <c r="G106" t="n">
         <v>27.69833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C107" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
         <v>27.3</v>
       </c>
       <c r="F107" t="n">
-        <v>9534.2829</v>
+        <v>90225.7564</v>
       </c>
       <c r="G107" t="n">
-        <v>27.70499999999999</v>
+        <v>27.69833333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1725.3055</v>
+        <v>9534.2829</v>
       </c>
       <c r="G108" t="n">
-        <v>27.70833333333333</v>
+        <v>27.70499999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C109" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D109" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E109" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1725.3055</v>
       </c>
       <c r="G109" t="n">
-        <v>27.71499999999999</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,544 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C110" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D110" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E110" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F110" t="n">
-        <v>141254.2882</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
-        <v>27.70833333333333</v>
+        <v>27.71499999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3878</v>
-      </c>
-      <c r="G111" t="n">
-        <v>27.70333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>689.5094</v>
-      </c>
-      <c r="G112" t="n">
-        <v>27.70333333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>36675.9999</v>
-      </c>
-      <c r="G113" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>43831.4057</v>
-      </c>
-      <c r="G114" t="n">
-        <v>27.70999999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>16500</v>
-      </c>
-      <c r="G115" t="n">
-        <v>27.71333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>64745.324</v>
-      </c>
-      <c r="G116" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>127773.7258</v>
-      </c>
-      <c r="G117" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>36764.6691</v>
-      </c>
-      <c r="G118" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>58031.5064</v>
-      </c>
-      <c r="G119" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G120" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>775.3209000000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>91.67740000000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>27.70166666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12485.2928</v>
-      </c>
-      <c r="G123" t="n">
-        <v>27.69833333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>96605.6162</v>
-      </c>
-      <c r="G124" t="n">
-        <v>27.695</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G125" t="n">
-        <v>27.69333333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6940.6705</v>
-      </c>
-      <c r="G126" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>15800</v>
-      </c>
-      <c r="G127" t="n">
-        <v>27.68666666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1511.377</v>
-      </c>
-      <c r="G128" t="n">
-        <v>27.68333333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>12162.6881</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.67833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>831.2327</v>
-      </c>
-      <c r="G130" t="n">
-        <v>27.66833333333333</v>
-      </c>
-      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
